--- a/contoh perhitungan.xlsx
+++ b/contoh perhitungan.xlsx
@@ -78,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -100,6 +107,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,9 +130,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,116 +228,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,6 +264,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,157 +318,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +461,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,9 +511,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,178 +543,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A8:L45"/>
+  <dimension ref="A8:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1080,31 +1090,31 @@
         <v>5464</v>
       </c>
       <c r="F9">
-        <f>E9*D9</f>
+        <f t="shared" ref="F9:F12" si="0">E9*D9</f>
         <v>355160</v>
       </c>
       <c r="G9">
-        <f>A9*E9</f>
+        <f t="shared" ref="G9:G12" si="1">A9*E9</f>
         <v>54.64</v>
       </c>
       <c r="H9">
-        <f>F9-(G9*D9)</f>
+        <f t="shared" ref="H9:H12" si="2">F9-(G9*D9)</f>
         <v>351608.4</v>
       </c>
       <c r="I9">
-        <f>(E9-G9)*B9</f>
+        <f t="shared" ref="I9:I12" si="3">(E9-G9)*B9</f>
         <v>318.611304</v>
       </c>
       <c r="J9">
-        <f>H9-(I9*D9)</f>
+        <f t="shared" ref="J9:J12" si="4">H9-(I9*D9)</f>
         <v>330898.66524</v>
       </c>
       <c r="K9">
-        <f>(E9-G9-I9)*C9</f>
+        <f t="shared" ref="K9:K12" si="5">(E9-G9-I9)*C9</f>
         <v>661.79733048</v>
       </c>
       <c r="L9">
-        <f>J9-(K9*D9)</f>
+        <f t="shared" ref="L9:L12" si="6">J9-(K9*D9)</f>
         <v>287881.8387588</v>
       </c>
     </row>
@@ -1128,31 +1138,31 @@
         <v>100000.15</v>
       </c>
       <c r="F10">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
         <v>1000001.5</v>
       </c>
       <c r="G10">
-        <f>A10*E10</f>
+        <f t="shared" si="1"/>
         <v>20680.03102</v>
       </c>
       <c r="H10">
-        <f>F10-(G10*D10)</f>
+        <f t="shared" si="2"/>
         <v>793201.1898</v>
       </c>
       <c r="I10">
-        <f>(E10-G10)*B10</f>
+        <f t="shared" si="3"/>
         <v>3791.501687244</v>
       </c>
       <c r="J10">
-        <f>H10-(I10*D10)</f>
+        <f t="shared" si="4"/>
         <v>755286.17292756</v>
       </c>
       <c r="K10">
-        <f>(E10-G10-I10)*C10</f>
+        <f t="shared" si="5"/>
         <v>1503.01948412584</v>
       </c>
       <c r="L10">
-        <f>J10-(K10*D10)</f>
+        <f t="shared" si="6"/>
         <v>740255.978086302</v>
       </c>
     </row>
@@ -1176,31 +1186,31 @@
         <v>134568</v>
       </c>
       <c r="F11">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
         <v>90833400</v>
       </c>
       <c r="G11">
-        <f>A11*E11</f>
+        <f t="shared" si="1"/>
         <v>13456.8</v>
       </c>
       <c r="H11">
-        <f>F11-(G11*D11)</f>
+        <f t="shared" si="2"/>
         <v>81750060</v>
       </c>
       <c r="I11">
-        <f>(E11-G11)*B11</f>
+        <f t="shared" si="3"/>
         <v>6055.56</v>
       </c>
       <c r="J11">
-        <f>H11-(I11*D11)</f>
+        <f t="shared" si="4"/>
         <v>77662557</v>
       </c>
       <c r="K11">
-        <f>(E11-G11-I11)*C11</f>
+        <f t="shared" si="5"/>
         <v>6903.3384</v>
       </c>
       <c r="L11">
-        <f>J11-(K11*D11)</f>
+        <f t="shared" si="6"/>
         <v>73002803.58</v>
       </c>
     </row>
@@ -1222,31 +1232,31 @@
         <v>8844</v>
       </c>
       <c r="F12">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
         <v>79596</v>
       </c>
       <c r="G12">
-        <f>A12*E12</f>
+        <f t="shared" si="1"/>
         <v>5189.6592</v>
       </c>
       <c r="H12">
-        <f>F12-(G12*D12)</f>
+        <f t="shared" si="2"/>
         <v>32889.0672</v>
       </c>
       <c r="I12">
-        <f>(E12-G12)*B12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>H12-(I12*D12)</f>
+        <f t="shared" si="4"/>
         <v>32889.0672</v>
       </c>
       <c r="K12">
-        <f>(E12-G12-I12)*C12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>J12-(K12*D12)</f>
+        <f t="shared" si="6"/>
         <v>32889.0672</v>
       </c>
     </row>
@@ -1326,7 +1336,7 @@
         <v>1000000</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K30" si="0">I28*J28</f>
+        <f t="shared" ref="K28:K30" si="7">I28*J28</f>
         <v>10000000</v>
       </c>
     </row>
@@ -1338,7 +1348,7 @@
         <v>1000000</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1350,7 +1360,7 @@
         <v>500000</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5000000</v>
       </c>
     </row>
@@ -1449,6 +1459,89 @@
     <row r="45" spans="8:8">
       <c r="H45" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50">
+        <f>10/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>1000000</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F52" si="8">D50*E50</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>1000000</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="8"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>500000</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="8"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53">
+        <f>5/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F50:F52)</f>
+        <v>25000000</v>
+      </c>
+      <c r="G53">
+        <f>C50*F53</f>
+        <v>2500000</v>
+      </c>
+      <c r="H53">
+        <f>F53-G53</f>
+        <v>22500000</v>
+      </c>
+      <c r="I53">
+        <f>H53*C53</f>
+        <v>1125000</v>
+      </c>
+      <c r="J53">
+        <f>H53+I53</f>
+        <v>23625000</v>
       </c>
     </row>
   </sheetData>

--- a/contoh perhitungan.xlsx
+++ b/contoh perhitungan.xlsx
@@ -79,11 +79,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,54 +92,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,90 +222,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,37 +245,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,13 +353,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,31 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,72 +419,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,18 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,24 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,6 +465,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +510,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,156 +541,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1007,8 @@
   <sheetPr/>
   <dimension ref="A8:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1311,76 +1301,7 @@
         <v>81470213.5104496</v>
       </c>
     </row>
-    <row r="24" spans="11:11">
-      <c r="K24">
-        <f>23000000+2000000</f>
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25">
-        <f>K24-2500000</f>
-        <v>22500000</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11">
-      <c r="K27">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="28" spans="9:11">
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
-        <v>1000000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ref="K28:K30" si="7">I28*J28</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11">
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>1000000</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="30" spans="9:11">
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
-        <v>500000</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="7"/>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12">
-      <c r="K31">
-        <f>SUM(K28:K30)</f>
-        <v>25000000</v>
-      </c>
-      <c r="L31">
-        <f>10/100</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="12:12">
-      <c r="L32">
-        <f>L31*K31</f>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:5">
       <c r="C33">
         <v>10</v>
       </c>
@@ -1390,10 +1311,6 @@
       <c r="E33">
         <f>C33*D33</f>
         <v>12000000</v>
-      </c>
-      <c r="K33">
-        <f>K31-L32</f>
-        <v>22500000</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -1487,7 +1404,7 @@
         <v>1000000</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F52" si="8">D50*E50</f>
+        <f t="shared" ref="F50:F52" si="7">D50*E50</f>
         <v>10000000</v>
       </c>
     </row>
@@ -1498,8 +1415,8 @@
       <c r="E51">
         <v>1000000</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="8"/>
+      <c r="F51">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1513,8 +1430,8 @@
       <c r="E52">
         <v>500000</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="8"/>
+      <c r="F52">
+        <f t="shared" si="7"/>
         <v>5000000</v>
       </c>
     </row>
